--- a/Bảng kế hoạch.xlsx
+++ b/Bảng kế hoạch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanlangunivn-my.sharepoint.com/personal/hoai_2274801030190_vanlanguni_vn/Documents/0. important/VLU_Summer-1/Đồ án ứng dụng/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{46BAACDA-CC72-4BCB-B31B-9F772305234C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{60847B7C-FB54-4614-A620-935C06514113}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A12EB32-8C61-404E-8B75-E494D5FF9165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11120" xr2:uid="{E1E7B26F-C169-4CCD-A1DA-C95DEA167C26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1E7B26F-C169-4CCD-A1DA-C95DEA167C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t xml:space="preserve">Bảng kế hoạch </t>
   </si>
@@ -42,9 +42,6 @@
     <t>Ngày hoàn thành</t>
   </si>
   <si>
-    <t>Dự trù</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
     <t>Trang Top (áo)</t>
   </si>
   <si>
-    <t>Trang accessories (phụ kiện)</t>
-  </si>
-  <si>
-    <t>Trang Bottom (quần)</t>
-  </si>
-  <si>
     <t>Trang Log in, Sign up (đăng kí, đăng nhập</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>Đăng nhập</t>
   </si>
   <si>
-    <t>Tìm kiếm</t>
-  </si>
-  <si>
     <t>Quên mật khẩu</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>Giỏ hàng</t>
   </si>
   <si>
-    <t>Bộ lọc sản phẩm</t>
-  </si>
-  <si>
     <t>Thành viên nhóm:</t>
   </si>
   <si>
@@ -145,17 +130,98 @@
   </si>
   <si>
     <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>25/06/2023</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>04/07/2023</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
+  <si>
+    <t>Dự trù (Nếu có)</t>
+  </si>
+  <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>Hoài</t>
+  </si>
+  <si>
+    <t>Trang Sale (Khuyến mãi)</t>
+  </si>
+  <si>
+    <t>Trang Bottom (Quần)</t>
+  </si>
+  <si>
+    <t>Trang Outwear (Áo ngoài)</t>
+  </si>
+  <si>
+    <t>Trang Accessories (phụ kiện)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trang About Us </t>
+  </si>
+  <si>
+    <t>Hoài, Bảo</t>
+  </si>
+  <si>
+    <t>Phân chia sau khi bắt đầu nghiên cứu Node.Js</t>
+  </si>
+  <si>
+    <t>Bảng mô tả chức năng</t>
+  </si>
+  <si>
+    <t>Stt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên chức năng </t>
+  </si>
+  <si>
+    <t>Mô tả chức năng</t>
+  </si>
+  <si>
+    <t>Đăng kí tài khoản</t>
+  </si>
+  <si>
+    <t>Người dùng đăng kí tài khoản cung cấp email, họ tên, số điện thoại, giới tính, password. Sau đó xác nhận bằng mã xácc nhận gửi qua mail</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng đăng nhập bằng mail hoặc số điện thoại và nhập password.</t>
+  </si>
+  <si>
+    <t>Yêu cầu người dùng nhập mail sau đó mã xác nhận sẽ gửi qua mail. Người dùng nập mã đó để đổi lại mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Người dùng có thể đưa sản phẩm vào giỏ hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -196,6 +262,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -266,8 +347,193 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -278,30 +544,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -327,26 +581,105 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,418 +995,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F6BA8-E121-41B9-9DB4-2A6AB15E06EB}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D33" sqref="B33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="2"/>
     <col min="3" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="3">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="37">
+        <v>10</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B29" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="46">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="46">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="46">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47">
         <v>7</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="13">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="13">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5">
-        <v>10</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="31">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="A5:A10"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003EE74083ED63544F9818B5A1509A2755" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27d097d89e7780f70a9f696f8fa1bd05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a65cc218-a86d-4aa8-8cc6-c5fba453d178" xmlns:ns4="e14347fe-03ec-4a1e-999a-0b831fbce115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd2ee1f3bfd2848e8ef7ea280c5f3a25" ns3:_="" ns4:_="">
     <xsd:import namespace="a65cc218-a86d-4aa8-8cc6-c5fba453d178"/>
@@ -1288,15 +1853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1306,6 +1862,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95B80EA6-209C-4448-B775-3110B3CA4ACA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1249A225-087C-429F-AB6D-4B413055D426}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1320,14 +1884,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95B80EA6-209C-4448-B775-3110B3CA4ACA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Bảng kế hoạch.xlsx
+++ b/Bảng kế hoạch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Luu Code\Do_an_UD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A12EB32-8C61-404E-8B75-E494D5FF9165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7697ABDB-6CDE-4705-9A72-0C1B6B43EBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1E7B26F-C169-4CCD-A1DA-C95DEA167C26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E1E7B26F-C169-4CCD-A1DA-C95DEA167C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t xml:space="preserve">Bảng kế hoạch </t>
   </si>
@@ -210,7 +210,13 @@
     <t>Yêu cầu người dùng nhập mail sau đó mã xác nhận sẽ gửi qua mail. Người dùng nập mã đó để đổi lại mật khẩu mới</t>
   </si>
   <si>
-    <t>Người dùng có thể đưa sản phẩm vào giỏ hàng</t>
+    <t>Mua Hàng</t>
+  </si>
+  <si>
+    <t>Người dùng chọn sản phẩm, chọn size và bấm vào nút mua</t>
+  </si>
+  <si>
+    <t>Người dùng có thể đưa sản phẩm muốn mua vào giỏ hàng</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -264,7 +270,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -544,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +560,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,27 +630,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,79 +682,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,97 +998,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F6BA8-E121-41B9-9DB4-2A6AB15E06EB}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="B33:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="2"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="2"/>
     <col min="3" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="12" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3">
@@ -1098,17 +1101,17 @@
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1119,19 +1122,19 @@
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -1142,19 +1145,19 @@
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -1165,17 +1168,17 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1186,17 +1189,17 @@
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -1207,23 +1210,23 @@
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="26">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1232,396 +1235,413 @@
       <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="26">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="33" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="3">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="3">
         <v>9</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B26" s="9">
         <v>10</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B29" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
         <v>1</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B30" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="15" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>2</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B31" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="15" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
         <v>3</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B32" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="15" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
         <v>4</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B33" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="15" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>5</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
-        <v>5</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+      <c r="C34" s="41"/>
+      <c r="D34" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
         <v>6</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="21">
         <v>7</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
+    <mergeCell ref="I19:I25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
